--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1115267.89234439</v>
+        <v>1109263.682529112</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1042617.113969143</v>
+        <v>416855.1052283208</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10905231.83017934</v>
+        <v>11161664.80186299</v>
       </c>
     </row>
     <row r="11">
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>92.47445699814307</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>108.9812949757276</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347168</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>77.90058429280643</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>356.5788332184736</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>63.25786276724418</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>136.9968647819699</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>102.8244422381747</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>119.3517065765362</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814307</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>31.12319313366419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>61.42978662487853</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>199.0222304576137</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>229.796569204137</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247746</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098773</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004737</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>139.3687739767463</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>150.2062474346962</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>284.4297735342287</v>
+        <v>409.8033385187834</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247746</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098773</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>135.0949745400654</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471482</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>42.14967908986334</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>46.52295781333198</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2086,13 +2086,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>9.146142788179425</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>9.570729811036772</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>63.1628130171261</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>105.6507867899569</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3271,10 +3271,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>45.17596778974989</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>18.70843787977262</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0.2811815126420993</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4330,19 +4330,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4372,7 +4372,7 @@
         <v>3215.315153136266</v>
       </c>
       <c r="X2" t="n">
-        <v>3121.906610713899</v>
+        <v>2841.849394875186</v>
       </c>
       <c r="Y2" t="n">
         <v>2731.767278738087</v>
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V4" t="n">
-        <v>1391.09371846696</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W4" t="n">
-        <v>1391.09371846696</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>1312.406259585337</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>1091.613680441807</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.939223126803</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1535.524858594925</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1177.259159988175</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1177.259159988175</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>766.2732551985673</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4567,7 +4567,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2008.078555102614</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1617.939223126803</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="6">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>880.8839692864693</v>
+        <v>373.8289708570296</v>
       </c>
       <c r="C7" t="n">
-        <v>711.9477863585624</v>
+        <v>204.8927879291227</v>
       </c>
       <c r="D7" t="n">
-        <v>561.8311469462267</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>413.9180533638336</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4752,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V7" t="n">
-        <v>1391.09371846696</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W7" t="n">
-        <v>1101.676548429999</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="X7" t="n">
-        <v>1101.676548429999</v>
+        <v>776.2700148307995</v>
       </c>
       <c r="Y7" t="n">
-        <v>880.8839692864693</v>
+        <v>555.4774356872693</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1647.321240915451</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1278.358723975039</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4837,19 +4837,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3094.757873766027</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2763.694986422457</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2410.926331152342</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X8" t="n">
-        <v>2037.460572891262</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>1647.321240915451</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,34 +4859,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158134</v>
@@ -4898,31 +4898,31 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>877.8124784996427</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C10" t="n">
-        <v>708.8762955717358</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D10" t="n">
-        <v>558.7596561594</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1865.244258568413</v>
       </c>
       <c r="V10" t="n">
-        <v>1326.59460854119</v>
+        <v>1865.244258568413</v>
       </c>
       <c r="W10" t="n">
-        <v>1326.59460854119</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X10" t="n">
-        <v>1098.605057643173</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y10" t="n">
-        <v>877.8124784996427</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1590.514489367197</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1221.551972426786</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>863.2862738200351</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>477.498021221791</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>66.5121164321834</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>66.5121164321834</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>66.5121164321834</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810548</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329463</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296684</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.60582160917</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.60582160917</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3093.488074938325</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>2740.71941966821</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>2367.25366140713</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>1977.114329431319</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>95.58405025273892</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>245.2306927803934</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031477</v>
+        <v>579.1554649516138</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158128</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1671.859558793923</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410637</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764912</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>976.33877587604</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502318</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935977</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.46409084602</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672846</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T13" t="n">
-        <v>1645.778206672846</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U13" t="n">
-        <v>1645.778206672846</v>
+        <v>1836.684541140056</v>
       </c>
       <c r="V13" t="n">
-        <v>1645.778206672846</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W13" t="n">
-        <v>1645.778206672846</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2175.400891308156</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C14" t="n">
-        <v>1806.438374367744</v>
+        <v>1948.81350961146</v>
       </c>
       <c r="D14" t="n">
-        <v>1448.172675760994</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E14" t="n">
-        <v>1062.38442316275</v>
+        <v>1204.759558406465</v>
       </c>
       <c r="F14" t="n">
-        <v>651.3985183731422</v>
+        <v>793.7736536168579</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218339</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296684</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.60582160917</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.60582160917</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.60582160917</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.60582160917</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W14" t="n">
-        <v>3325.60582160917</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X14" t="n">
-        <v>2952.14006334809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2562.000731372278</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>95.58405025273896</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031476</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158128</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>559.0424953278207</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>559.0424953278207</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764912</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
-        <v>976.33877587604</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502318</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935977</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088492</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088492</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088492</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088492</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088492</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>424.9938751277886</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>278.1039276298782</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>278.1039276298782</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>136.3920964720762</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5773,31 +5773,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3195.647281583948</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>3026.711098656041</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>2876.594459243706</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>2728.681365661313</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>4431.265210456368</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>4142.189983800566</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>3887.505495594679</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>3598.088325557718</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>3598.088325557718</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>3377.295746414188</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5983,25 +5983,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>695.5020655703109</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>695.5020655703109</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6217,37 +6217,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4517.069482196493</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4517.069482196493</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4517.069482196493</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>4262.384993990607</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,7 +6445,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6600,19 +6600,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400712</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>513.8536007400712</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
@@ -6703,49 +6703,49 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,7 +6919,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1366.386875345992</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,16 +7162,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7216,7 +7216,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7314,19 +7314,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>194.8007783998286</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7399,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2311.700279152292</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2544.961939527175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>2.387423592153937e-12</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>97.9556892659979</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23469,19 +23469,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>146.8157004124979</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>75.50340795434099</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>126.4919521192247</v>
+        <v>3.183231456205249e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>44.73700564187195</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944278</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>39.11615722870221</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>179.1866975757052</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23980,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347518</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>207.8347205162515</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>83.27114962944307</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>75.37549921168767</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>116.6691671648112</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>121.5862749664513</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>285.9032928766021</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>814152.0058469224</v>
+        <v>961206.0779010156</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>814152.0058469224</v>
+        <v>961206.0779010158</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>961206.077901016</v>
+        <v>961206.0779010159</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>961206.077901016</v>
+        <v>961206.0779010159</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>961206.077901016</v>
+        <v>961206.0779010159</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>961206.0779010161</v>
+        <v>961206.0779010159</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>961206.077901016</v>
+        <v>961206.0779010159</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>961206.0779010161</v>
+        <v>961206.0779010159</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>961206.077901016</v>
+        <v>961206.0779010159</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>961206.0779010161</v>
+        <v>961206.0779010159</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>961206.077901016</v>
+        <v>961206.0779010159</v>
       </c>
     </row>
   </sheetData>
@@ -26322,37 +26322,37 @@
         <v>472099.0176719633</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.6638165587</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="F2" t="n">
-        <v>392146.6638165588</v>
+        <v>464109.2948217535</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="H2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="I2" t="n">
         <v>464109.2948217536</v>
       </c>
-      <c r="I2" t="n">
-        <v>464109.2948217537</v>
-      </c>
       <c r="J2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="K2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="M2" t="n">
         <v>464109.2948217536</v>
       </c>
-      <c r="M2" t="n">
-        <v>464109.2948217537</v>
-      </c>
       <c r="N2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217539</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217538</v>
       </c>
       <c r="P2" t="n">
         <v>464109.2948217537</v>
@@ -26365,25 +26365,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>309843.0334598204</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>82135.83059545141</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>92793.84288319407</v>
+      </c>
+      <c r="C4" t="n">
         <v>92793.84288319405</v>
       </c>
-      <c r="C4" t="n">
-        <v>92793.84288319404</v>
-      </c>
       <c r="D4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319405</v>
       </c>
       <c r="E4" t="n">
-        <v>13430.06689216532</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13430.06689216532</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184274</v>
@@ -26444,10 +26444,10 @@
         <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
         <v>13606.80811184274</v>
@@ -26456,10 +26456,10 @@
         <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="P4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139327</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1057373.511500217</v>
       </c>
       <c r="C6" t="n">
-        <v>271371.2342273759</v>
+        <v>271371.2342273757</v>
       </c>
       <c r="D6" t="n">
-        <v>271371.2342273759</v>
+        <v>271371.2342273761</v>
       </c>
       <c r="E6" t="n">
-        <v>304410.2563630004</v>
+        <v>23620.11582429224</v>
       </c>
       <c r="F6" t="n">
-        <v>304410.2563630001</v>
+        <v>349032.5776316464</v>
       </c>
       <c r="G6" t="n">
-        <v>39536.92342618339</v>
+        <v>349032.5776316468</v>
       </c>
       <c r="H6" t="n">
-        <v>349379.9568860037</v>
+        <v>349032.5776316468</v>
       </c>
       <c r="I6" t="n">
-        <v>349379.9568860039</v>
+        <v>349032.5776316469</v>
       </c>
       <c r="J6" t="n">
-        <v>131848.7544887264</v>
+        <v>131501.3752343694</v>
       </c>
       <c r="K6" t="n">
-        <v>349379.9568860038</v>
+        <v>349032.5776316469</v>
       </c>
       <c r="L6" t="n">
-        <v>349379.9568860038</v>
+        <v>349032.5776316469</v>
       </c>
       <c r="M6" t="n">
-        <v>349379.9568860038</v>
+        <v>263977.5496961352</v>
       </c>
       <c r="N6" t="n">
-        <v>349379.9568860038</v>
+        <v>349032.5776316471</v>
       </c>
       <c r="O6" t="n">
-        <v>267244.1262905523</v>
+        <v>349032.5776316469</v>
       </c>
       <c r="P6" t="n">
-        <v>349379.9568860038</v>
+        <v>349032.5776316469</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26795,13 +26795,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26962,22 +26962,22 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>278.1987997483759</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>341.306832697356</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.306832697356</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.306832697356</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>277.256643680326</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27596,13 +27596,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>94.35543628911122</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>147.8090710962307</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,19 +27618,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>54.34289243497983</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>306.4732379112248</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>11.61860823624249</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>42.59660578475652</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>131.6434653823658</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>277.256643680326</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>115.310769512905</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>224.7820515807343</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681596</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844665</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953987</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003808</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623191</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574991</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N11" t="n">
-        <v>781.714899009502</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099056</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746411</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781688</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806946</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502565</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752254</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>277.9958514420753</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353155</v>
+        <v>475.1391886422583</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138794</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233473</v>
+        <v>745.5466476862117</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837921</v>
+        <v>765.2790490071781</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970248</v>
+        <v>398.7616643558032</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002925</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987499</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898494</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297389</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702023</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316431</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802168</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712211</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112292</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681596</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844665</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953987</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003808</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623191</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574991</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>781.714899009502</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099056</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746411</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781688</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806946</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502565</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752254</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138794</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233473</v>
+        <v>650.2626573149955</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837921</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970261</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002925</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898494</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297389</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702023</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316431</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802168</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712211</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112292</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,40 +32311,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,19 +32797,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,16 +33511,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,31 +33733,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>353.2560498238277</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33912,7 +33912,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,13 +33985,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34128,10 +34128,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>153.8606640989137</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687124</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554003</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923318</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302264</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N11" t="n">
-        <v>552.301835412911</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882189</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193715</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037193</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222467</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774858</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597702</v>
+        <v>151.1582247754086</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609565</v>
+        <v>337.2977496678993</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340052</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>451.794267901329</v>
+        <v>603.4126137641933</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004589</v>
+        <v>633.9373369238448</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525803</v>
+        <v>256.1654199113588</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859623</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127284</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306617</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>319.757372170198</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934837</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675399</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451103</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789357</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687124</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554003</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923318</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302264</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>552.301835412911</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882189</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193715</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037193</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222467</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597702</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340052</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>451.794267901329</v>
+        <v>508.1286233929772</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004589</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525818</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859623</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306617</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>319.757372170198</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934837</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675399</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451103</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789357</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,19 +36445,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>213.2742757378062</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,13 +37633,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37776,10 +37776,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>8.181160134949776</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1109263.682529112</v>
+        <v>1112418.601871333</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283208</v>
+        <v>1042617.113969143</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11161664.80186299</v>
+        <v>10905231.83017934</v>
       </c>
     </row>
     <row r="11">
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814216</v>
       </c>
       <c r="Y2" t="n">
-        <v>108.9812949757276</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>42.86209348694648</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>157.7822070347168</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>356.5788332184736</v>
+        <v>236.8978589069419</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1059,19 +1059,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>136.9968647819699</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>71.67037196991669</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>398.2527805383294</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292598</v>
@@ -1186,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>92.47445699814307</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1308,7 +1308,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983812</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>61.42978662487853</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>82.26790245020051</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695535</v>
+        <v>61.67200173588777</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576137</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128548</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>56.31164423580227</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856558</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012174</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>139.3687739767463</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187834</v>
+        <v>134.0134608363806</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>135.0949745400654</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>63.28280651916054</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>42.14967908986334</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>9.146142788179425</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>147.7027769252548</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>102.1557845699813</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4327,52 +4327,52 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X2" t="n">
-        <v>2841.849394875186</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y2" t="n">
         <v>2731.767278738087</v>
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088492</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1767.918581386758</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W4" t="n">
-        <v>1478.501411349798</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X4" t="n">
-        <v>1250.51186045178</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="Y4" t="n">
-        <v>1029.71928130825</v>
+        <v>1134.908724368016</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1904.487375535337</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C5" t="n">
-        <v>1535.524858594925</v>
+        <v>758.7856865549909</v>
       </c>
       <c r="D5" t="n">
-        <v>1177.259159988175</v>
+        <v>758.7856865549909</v>
       </c>
       <c r="E5" t="n">
-        <v>1177.259159988175</v>
+        <v>758.7856865549909</v>
       </c>
       <c r="F5" t="n">
-        <v>766.2732551985673</v>
+        <v>347.7997817653833</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4582,37 +4582,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535337</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y5" t="n">
-        <v>1904.487375535337</v>
+        <v>1514.348043559524</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>373.8289708570296</v>
+        <v>752.7622949738575</v>
       </c>
       <c r="C7" t="n">
-        <v>204.8927879291227</v>
+        <v>583.8261120459506</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>433.7094726336148</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>285.7963790512217</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>138.9064315533114</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>138.9064315533114</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1548.361223971664</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1293.676735765777</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W7" t="n">
-        <v>1004.259565728817</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>776.2700148307995</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y7" t="n">
-        <v>555.4774356872693</v>
+        <v>934.4107598040972</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>510.7845510900171</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136266</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>945.3964936596652</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>776.4603107317583</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
         <v>111.6347488791189</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1865.244258568413</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V10" t="n">
-        <v>1865.244258568413</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W10" t="n">
-        <v>1575.827088531452</v>
+        <v>1356.361036635886</v>
       </c>
       <c r="X10" t="n">
-        <v>1347.837537633435</v>
+        <v>1356.361036635886</v>
       </c>
       <c r="Y10" t="n">
-        <v>1127.044958489905</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111722</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398591</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492575</v>
+        <v>3263.310870360799</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>3057.333122745021</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>3057.333122745021</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>2726.27023540145</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>2373.501580131336</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>2373.501580131336</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797182</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273892</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803934</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516138</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167372</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793923</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.45752234853</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>662.1522880254209</v>
+        <v>714.5294324299974</v>
       </c>
       <c r="C13" t="n">
-        <v>493.2161050975141</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D13" t="n">
-        <v>343.0994656851783</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797182</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782955</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>435.741944003834</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487565</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510506</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1836.684541140056</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V13" t="n">
-        <v>1582.000052934169</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="W13" t="n">
-        <v>1292.582882897208</v>
+        <v>935.3220115735276</v>
       </c>
       <c r="X13" t="n">
-        <v>1064.593331999191</v>
+        <v>935.3220115735276</v>
       </c>
       <c r="Y13" t="n">
-        <v>843.8007528556607</v>
+        <v>714.5294324299974</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551872</v>
+        <v>1767.878520285689</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.81350961146</v>
+        <v>1398.916003345277</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.54781100471</v>
+        <v>1040.650304738527</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406465</v>
+        <v>654.8620521402825</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168579</v>
+        <v>243.8761473506749</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797182</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111711</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398591</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492575</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474781</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.81249946657</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852885</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615994</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568977</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028056</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797182</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273896</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803936</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516141</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
-        <v>1577.52840832642</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>559.0424953278207</v>
+        <v>423.5412774992668</v>
       </c>
       <c r="C16" t="n">
-        <v>559.0424953278207</v>
+        <v>359.619250712236</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797182</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797182</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797182</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>423.5412774992668</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5509,13 +5509,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
@@ -5527,7 +5527,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>572.9069687101817</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>424.9938751277886</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>278.1039276298782</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>278.1039276298782</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>136.3920964720762</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5746,58 +5746,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5895,19 +5895,19 @@
         <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597619</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6129,22 +6129,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6220,34 +6220,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6366,22 +6366,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6448,37 +6448,37 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6603,19 +6603,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6694,19 +6694,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6718,16 +6718,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6840,22 +6840,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6940,10 +6940,10 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,13 +7189,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7371,13 +7371,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.506641481895</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.517090583878</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7548,19 +7548,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>197.0043242297712</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>197.0043242297712</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>47.51576005228808</v>
       </c>
       <c r="T11" t="n">
-        <v>2.387423592153937e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>110.9351768628256</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>146.8157004124979</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>276.9082648170729</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>44.73700564187195</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>103.9640145794673</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>39.11615722870221</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23980,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24135,16 +24135,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>136.2749052347518</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>121.5862749664513</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>138.8202214113362</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>63.36835372228751</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>961206.0779010156</v>
+        <v>814152.0058469224</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>961206.0779010158</v>
+        <v>814152.0058469224</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>961206.0779010159</v>
+        <v>961206.077901016</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>961206.077901016</v>
+        <v>961206.0779010159</v>
       </c>
     </row>
     <row r="12">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="C2" t="n">
         <v>472099.0176719632</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719633</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="E2" t="n">
+        <v>392146.6638165588</v>
+      </c>
+      <c r="F2" t="n">
+        <v>392146.6638165588</v>
+      </c>
+      <c r="G2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="H2" t="n">
         <v>464109.2948217536</v>
       </c>
-      <c r="F2" t="n">
-        <v>464109.2948217535</v>
-      </c>
-      <c r="G2" t="n">
-        <v>464109.2948217536</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>464109.2948217537</v>
       </c>
-      <c r="I2" t="n">
-        <v>464109.2948217536</v>
-      </c>
       <c r="J2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
         <v>464109.2948217537</v>
@@ -26346,13 +26346,13 @@
         <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217539</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217538</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="P2" t="n">
         <v>464109.2948217537</v>
@@ -26368,28 +26368,28 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073546</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>309843.0334598203</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>82135.83059545141</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319413</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319413</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.8428831941</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184274</v>
+        <v>13430.06689216532</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184274</v>
+        <v>13430.06689216532</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184274</v>
@@ -26453,10 +26453,10 @@
         <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184274</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1057373.511500217</v>
+        <v>-1057373.511500216</v>
       </c>
       <c r="C6" t="n">
-        <v>271371.2342273757</v>
+        <v>271371.2342273758</v>
       </c>
       <c r="D6" t="n">
-        <v>271371.2342273761</v>
+        <v>271371.2342273758</v>
       </c>
       <c r="E6" t="n">
-        <v>23620.11582429224</v>
+        <v>304062.637433194</v>
       </c>
       <c r="F6" t="n">
-        <v>349032.5776316464</v>
+        <v>304062.637433194</v>
       </c>
       <c r="G6" t="n">
-        <v>349032.5776316468</v>
+        <v>39502.18550074782</v>
       </c>
       <c r="H6" t="n">
-        <v>349032.5776316468</v>
+        <v>349345.2189605683</v>
       </c>
       <c r="I6" t="n">
-        <v>349032.5776316469</v>
+        <v>349345.2189605681</v>
       </c>
       <c r="J6" t="n">
-        <v>131501.3752343694</v>
+        <v>131814.0165632907</v>
       </c>
       <c r="K6" t="n">
-        <v>349032.5776316469</v>
+        <v>349345.2189605681</v>
       </c>
       <c r="L6" t="n">
-        <v>349032.5776316469</v>
+        <v>349345.2189605681</v>
       </c>
       <c r="M6" t="n">
-        <v>263977.5496961352</v>
+        <v>349345.2189605681</v>
       </c>
       <c r="N6" t="n">
-        <v>349032.5776316471</v>
+        <v>349345.2189605681</v>
       </c>
       <c r="O6" t="n">
-        <v>349032.5776316469</v>
+        <v>267209.3883651168</v>
       </c>
       <c r="P6" t="n">
-        <v>349032.5776316469</v>
+        <v>349345.2189605681</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="D4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="E4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
+      <c r="F4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26962,22 +26962,22 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>341.306832697356</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>277.2566436803269</v>
       </c>
       <c r="Y2" t="n">
-        <v>277.256643680326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>136.9698866949908</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>94.35543628911122</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>54.34289243497983</v>
+        <v>174.0238667465115</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>11.61860823624249</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>73.0846429444041</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>12.66894511512402</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>277.256643680326</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>224.7820515807343</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>136.3167509018943</v>
       </c>
     </row>
     <row r="11">
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31603,7 +31603,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348431</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>466.754615566328</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817572</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162557</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017567</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159421</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460023</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236504</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669219</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420753</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422583</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862117</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071781</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558032</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742436</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189902</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121569</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869271</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>174.405663379626</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355176</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588151</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392043</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106786</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920055</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515926</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670477</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532764</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>650.2626573149955</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>650.2626573149953</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33912,7 +33912,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -34131,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34371,7 +34371,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317142</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396417</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367767</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902943</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193511</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243155</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924724</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902402</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774858</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754086</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678993</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641933</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238448</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113588</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295327</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899072</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060452</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998982</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>508.1286233929772</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>508.128623392977</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -38019,7 +38019,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
